--- a/changes/template-oldnew.xlsx
+++ b/changes/template-oldnew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B399E06C-6B53-47A0-BBDB-094D2427400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92EF13F-C810-44DB-B6B8-84AE0506ED0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -933,13 +933,13 @@
   <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="22" width="6.7109375" customWidth="1"/>
+    <col min="3" max="27" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="1">
-        <f t="shared" ref="AA4:AA36" si="2">P4-Q4*20-R4*0.8-S4*0.6-U4*5+V4*10+W4/300</f>
+        <f t="shared" ref="AA4:AA18" si="2">P4-Q4*20-R4*0.8-S4*0.6-U4*5+V4*10+W4/300</f>
         <v>0</v>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <f t="shared" ref="AA22:AA39" si="3">P22-Q22*20-R22*0.8-S22*0.6-U22*5+V22*10+W22/300</f>
+        <f t="shared" ref="AA22:AA23" si="3">P22-Q22*20-R22*0.8-S22*0.6-U22*5+V22*10+W22/300</f>
         <v>0</v>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <f t="shared" ref="AA26:AA39" si="4">P26-Q26*20-R26*0.8-S26*0.6-U26*5+V26*10+W26/300</f>
+        <f t="shared" ref="AA26:AA27" si="4">P26-Q26*20-R26*0.8-S26*0.6-U26*5+V26*10+W26/300</f>
         <v>0</v>
       </c>
     </row>
